--- a/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,73%</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 5,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 5,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 0,0</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,49; 4,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 5,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,65; 0,0</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 12,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 5,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,57; 14,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 5,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>10,36</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 32,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-1,96</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,98; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,07; 3,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,08; 3,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1164,32 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 4,56</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,9; 4,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1244,32 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,37</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">

--- a/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 5,11</t>
+          <t>-7,79; 5,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 0,0</t>
+          <t>-16,79; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 5,4</t>
+          <t>-7,84; 5,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -667,14 +667,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 0,0</t>
+          <t>-16,79; 0,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 4,87</t>
+          <t>-3,71; 5,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -732,12 +732,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,0</t>
+          <t>-4,75; 0,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,18</t>
+          <t>-3,93; 6,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -747,14 +747,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 0,0</t>
+          <t>-4,75; 0,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 12,39</t>
+          <t>-1,57; 13,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,59</t>
+          <t>-2,74; 5,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 14,16</t>
+          <t>-1,57; 16,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 5,89</t>
+          <t>-2,74; 5,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,0</t>
+          <t>-6,55; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 0,0</t>
+          <t>-6,55; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 32,26</t>
+          <t>0,0; 33,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,62</t>
+          <t>0,0; 50,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,0</t>
+          <t>-9,78; 0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,0</t>
+          <t>-8,0; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 0,0</t>
+          <t>-9,78; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 0,0</t>
+          <t>-8,0; 0,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,73</t>
+          <t>-4,17; 3,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,0</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 3,82</t>
+          <t>-4,31; 3,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 0,0</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 4,56</t>
+          <t>-4,33; 4,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 4,8</t>
+          <t>-4,36; 4,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,37</t>
+          <t>-1,4; 2,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,25</t>
+          <t>-0,83; 0,28</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-1,14; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,46</t>
+          <t>-1,42; 2,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,25</t>
+          <t>-0,83; 0,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-1,14; 0,0</t>
         </is>
       </c>
     </row>
